--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>8.54500294202184</v>
+        <v>10.76594625520466</v>
       </c>
       <c r="R2">
-        <v>8.54500294202184</v>
+        <v>96.89351629684198</v>
       </c>
       <c r="S2">
-        <v>0.0002720729053026514</v>
+        <v>0.0003174219935334893</v>
       </c>
       <c r="T2">
-        <v>0.0002720729053026514</v>
+        <v>0.0003174219935334893</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>303.9936158278613</v>
+        <v>322.2361117427685</v>
       </c>
       <c r="R3">
-        <v>303.9936158278613</v>
+        <v>2900.125005684916</v>
       </c>
       <c r="S3">
-        <v>0.009679157141656241</v>
+        <v>0.009500774623356625</v>
       </c>
       <c r="T3">
-        <v>0.009679157141656241</v>
+        <v>0.009500774623356627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>110.6384096080425</v>
+        <v>137.6225131291072</v>
       </c>
       <c r="R4">
-        <v>110.6384096080425</v>
+        <v>1238.602618161965</v>
       </c>
       <c r="S4">
-        <v>0.003522727112485056</v>
+        <v>0.004057647273820572</v>
       </c>
       <c r="T4">
-        <v>0.003522727112485056</v>
+        <v>0.004057647273820573</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>35.04901484310644</v>
+        <v>44.24721502773421</v>
       </c>
       <c r="R5">
-        <v>35.04901484310644</v>
+        <v>398.2249352496079</v>
       </c>
       <c r="S5">
-        <v>0.001115960680301817</v>
+        <v>0.00130458009630305</v>
       </c>
       <c r="T5">
-        <v>0.001115960680301817</v>
+        <v>0.00130458009630305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>546.272327267441</v>
+        <v>660.0654041046013</v>
       </c>
       <c r="R6">
-        <v>546.272327267441</v>
+        <v>5940.588636941411</v>
       </c>
       <c r="S6">
-        <v>0.01739331164360336</v>
+        <v>0.0194612968954848</v>
       </c>
       <c r="T6">
-        <v>0.01739331164360336</v>
+        <v>0.0194612968954848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>19433.96639175852</v>
+        <v>19756.45282566409</v>
       </c>
       <c r="R7">
-        <v>19433.96639175852</v>
+        <v>177808.0754309768</v>
       </c>
       <c r="S7">
-        <v>0.6187775163607794</v>
+        <v>0.5824971156660689</v>
       </c>
       <c r="T7">
-        <v>0.6187775163607794</v>
+        <v>0.5824971156660689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>7072.9877931971</v>
+        <v>8437.703253305721</v>
       </c>
       <c r="R8">
-        <v>7072.9877931971</v>
+        <v>75939.32927975149</v>
       </c>
       <c r="S8">
-        <v>0.2252039409608439</v>
+        <v>0.2487763289932376</v>
       </c>
       <c r="T8">
-        <v>0.2252039409608439</v>
+        <v>0.2487763289932376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>2240.643688092706</v>
+        <v>2712.818286053143</v>
       </c>
       <c r="R9">
-        <v>2240.643688092706</v>
+        <v>24415.36457447829</v>
       </c>
       <c r="S9">
-        <v>0.07134209807810646</v>
+        <v>0.07998444057221632</v>
       </c>
       <c r="T9">
-        <v>0.07134209807810646</v>
+        <v>0.07998444057221632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>7.641763309541295</v>
+        <v>9.697919510949999</v>
       </c>
       <c r="R10">
-        <v>7.641763309541295</v>
+        <v>87.28127559855</v>
       </c>
       <c r="S10">
-        <v>0.0002433137541752751</v>
+        <v>0.0002859324086635569</v>
       </c>
       <c r="T10">
-        <v>0.0002433137541752751</v>
+        <v>0.000285932408663557</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>271.8603229899513</v>
+        <v>290.2689462797667</v>
       </c>
       <c r="R11">
-        <v>271.8603229899513</v>
+        <v>2612.420516517901</v>
       </c>
       <c r="S11">
-        <v>0.008656033053967813</v>
+        <v>0.00855825817860144</v>
       </c>
       <c r="T11">
-        <v>0.008656033053967813</v>
+        <v>0.00855825817860144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>98.9435047483661</v>
+        <v>123.9697861742084</v>
       </c>
       <c r="R12">
-        <v>98.9435047483661</v>
+        <v>1115.728075567875</v>
       </c>
       <c r="S12">
-        <v>0.003150361325837662</v>
+        <v>0.003655111750749636</v>
       </c>
       <c r="T12">
-        <v>0.003150361325837662</v>
+        <v>0.003655111750749636</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>31.34419935029841</v>
+        <v>39.85770686113334</v>
       </c>
       <c r="R13">
-        <v>31.34419935029841</v>
+        <v>358.7193617502</v>
       </c>
       <c r="S13">
-        <v>0.0009979993499690208</v>
+        <v>0.001175160312863169</v>
       </c>
       <c r="T13">
-        <v>0.0009979993499690208</v>
+        <v>0.001175160312863169</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>23.21952618806464</v>
+        <v>28.67004263952133</v>
       </c>
       <c r="R14">
-        <v>23.21952618806464</v>
+        <v>258.030383755692</v>
       </c>
       <c r="S14">
-        <v>0.0007393097454268375</v>
+        <v>0.0008453044324763814</v>
       </c>
       <c r="T14">
-        <v>0.0007393097454268375</v>
+        <v>0.0008453044324763814</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>826.0486007567537</v>
+        <v>858.1245758302464</v>
       </c>
       <c r="R15">
-        <v>826.0486007567537</v>
+        <v>7723.121182472218</v>
       </c>
       <c r="S15">
-        <v>0.02630138857224346</v>
+        <v>0.02530085206662018</v>
       </c>
       <c r="T15">
-        <v>0.02630138857224346</v>
+        <v>0.02530085206662018</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>300.6402065312711</v>
+        <v>366.4929422866211</v>
       </c>
       <c r="R16">
-        <v>300.6402065312711</v>
+        <v>3298.43648057959</v>
       </c>
       <c r="S16">
-        <v>0.009572384585089241</v>
+        <v>0.01080563822249564</v>
       </c>
       <c r="T16">
-        <v>0.009572384585089241</v>
+        <v>0.01080563822249564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>95.23946609933139</v>
+        <v>117.8316806952231</v>
       </c>
       <c r="R17">
-        <v>95.23946609933139</v>
+        <v>1060.485126257008</v>
       </c>
       <c r="S17">
-        <v>0.003032424730211666</v>
+        <v>0.003474136513508747</v>
       </c>
       <c r="T17">
-        <v>0.003032424730211666</v>
+        <v>0.003474136513508747</v>
       </c>
     </row>
   </sheetData>
